--- a/Jonathans Hjælpefiler/TIMES-DE_UdenRES/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
+++ b/Jonathans Hjælpefiler/TIMES-DE_UdenRES/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0ee8d5d29f1698f/Desktop/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/Trades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{0269AC8B-AE23-9D49-9BBD-F2DEEF13F283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA72332C-3F2B-479D-BCEE-BD35404B19CA}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{0269AC8B-AE23-9D49-9BBD-F2DEEF13F283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55CD3F59-CE1E-4B62-8175-6ADB5875898A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="35 (2)" sheetId="6" r:id="rId1"/>
-    <sheet name="BI" sheetId="5" r:id="rId2"/>
+    <sheet name="BI" sheetId="5" r:id="rId1"/>
+    <sheet name="35 (2)" sheetId="6" r:id="rId2"/>
     <sheet name="Uni" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1385,6 +1385,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="C3:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDBB1B2-3164-4C1E-9BA7-1A1B33D3D5D5}">
   <sheetPr codeName="Sheet49">
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -8919,148 +9061,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="C3:L10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
@@ -9121,6 +9121,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100391E4ED4D6B5344984C5B5CBC1A28781" ma:contentTypeVersion="13" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="a8662b4a95e495bc977359cc4b8d0a5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6218e30f-ac19-4e1a-9d42-0577826d9887" xmlns:ns3="9bef2f80-48e4-49d2-aa34-66e9d7fcf80f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b72a6a49e693c9bb3f1300811353490c" ns2:_="" ns3:_="">
     <xsd:import namespace="6218e30f-ac19-4e1a-9d42-0577826d9887"/>
@@ -9343,22 +9358,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DC82FAE-D590-4BE2-94FA-6638E43DC438}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9375,21 +9392,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21AFFA6-4B3D-491D-AC34-DD4539DE7BE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10B9EB0F-9E18-4488-856E-561DDDE8EE50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>